--- a/docs/StructureDefinition-ImplantableDeviceDental.xlsx
+++ b/docs/StructureDefinition-ImplantableDeviceDental.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.6</t>
+    <t>1.4.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-18T11:22:00+00:00</t>
+    <t>2025-04-18T16:44:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ImplantableDeviceDental.xlsx
+++ b/docs/StructureDefinition-ImplantableDeviceDental.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.10</t>
+    <t>1.4.15</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-18T16:44:16+00:00</t>
+    <t>2025-04-30T18:27:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ImplantableDeviceDental.xlsx
+++ b/docs/StructureDefinition-ImplantableDeviceDental.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.15</t>
+    <t>1.5.11</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T18:27:21+00:00</t>
+    <t>2025-05-08T08:24:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ImplantableDeviceDental.xlsx
+++ b/docs/StructureDefinition-ImplantableDeviceDental.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:24:02+00:00</t>
+    <t>2025-05-08T08:54:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ImplantableDeviceDental.xlsx
+++ b/docs/StructureDefinition-ImplantableDeviceDental.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.11</t>
+    <t>1.5.16</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:54:46+00:00</t>
+    <t>2025-05-12T19:54:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ImplantableDeviceDental.xlsx
+++ b/docs/StructureDefinition-ImplantableDeviceDental.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.16</t>
+    <t>1.5.23</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T19:54:30+00:00</t>
+    <t>2025-05-23T16:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1476,7 +1476,9 @@
     <t>1403: reference based on DENTAL DEVICE TRACKING - PATIENT (228.9-.03)</t>
   </si>
   <si>
-    <t>Dental.DeviceTracking.PatientIEN,Dental.DeviceTracking.PatientSID,Dental.DeviceTrackingDetail.PatientIEN</t>
+    <t>Dental.DeviceTracking.PatientIEN
+Dental.DeviceTracking.PatientSID
+Dental.DeviceTrackingDetail.PatientIEN</t>
   </si>
   <si>
     <t>.playedRole[typeCode=USED].scoper.playedRole[typeCode=PAT]</t>
@@ -1956,7 +1958,7 @@
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="76.03125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="86.10546875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="37.671875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="87.9765625" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="230.36328125" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-ImplantableDeviceDental.xlsx
+++ b/docs/StructureDefinition-ImplantableDeviceDental.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.23</t>
+    <t>1.5.30</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-23T16:28:56+00:00</t>
+    <t>2025-05-25T09:23:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ImplantableDeviceDental.xlsx
+++ b/docs/StructureDefinition-ImplantableDeviceDental.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.30</t>
+    <t>1.6.49</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-25T09:23:19+00:00</t>
+    <t>2025-06-13T16:10:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
